--- a/vignettes/s_pneumoniae_sweden.xlsx
+++ b/vignettes/s_pneumoniae_sweden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholascroucher/Documents/progression_rate_estimation/progressionEstimation/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804E8BC-636E-4342-A21D-3E77234A6FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E047CA-31A6-5D4F-8A66-41C4DEA958AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="3660" windowWidth="24440" windowHeight="12540" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
+    <workbookView xWindow="-32560" yWindow="260" windowWidth="30760" windowHeight="12140" xr2:uid="{68B6CDF4-21FC-164B-AD92-181213EE6C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="case_carriage_study" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>study</t>
   </si>
   <si>
-    <t>categorisation</t>
-  </si>
-  <si>
     <t>carriage_samples</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>35F</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC935FF1-1BCC-4F45-848F-DA69E54893DF}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,30 +491,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -560,10 +560,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>97</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>60</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>38</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>82</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>93</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1019,9 +1019,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="study" prompt="Unique name of the case-carrier study." sqref="A1:A1048576" xr:uid="{2435CC46-B0F7-5E4E-8AD4-F163026A9A43}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="categorisation" prompt="The label of the subdivision of the microbial population" sqref="B1:B1048576" xr:uid="{76DB945B-4317-0741-A9F1-6F3EE74306A3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="categorisation" prompt="The label of the subdivision of the microbial population" sqref="B24:B1048576" xr:uid="{76DB945B-4317-0741-A9F1-6F3EE74306A3}"/>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="carriage" prompt="The number of isolates of this subtype recovered from asymptomatic carriers (must be a non-negative integer)" sqref="C1:C1048576" xr:uid="{BAE78EC0-D7B3-1741-9D15-2E811F22465D}">
       <formula1>0</formula1>
     </dataValidation>
@@ -1038,6 +1038,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="strain" prompt="Optional column specifying the strain background when two subtyping categoriations are used in the analysis" sqref="H1:H1048576" xr:uid="{EEEAAE33-77E6-8947-BE6B-00538FD9F9CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="type" prompt="The subdivision of the microbial population to which the isolates belong" sqref="B1:B23" xr:uid="{A2514DB0-F4AF-EF4B-B1D2-F1868F2E5E66}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
